--- a/Statistics/100m Medley_statistics.xlsx
+++ b/Statistics/100m Medley_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,12 +651,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Albert Barrabino</t>
+          <t>Gabriel Rognes Steen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.00,70</t>
+          <t>1.00,69</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,12 +664,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.03.2012</t>
+          <t>28.09.2024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -686,12 +686,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gabriel Rognes Steen</t>
+          <t>Albert Barrabino</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.00,69</t>
+          <t>1.00,70</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -699,12 +699,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28.09.2024</t>
+          <t>25.03.2012</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1386,12 +1386,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Solum Ole Peder Uthus</t>
+          <t>Magnus Jåtten</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.05,06</t>
+          <t>1.05,08</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1399,12 +1399,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29.09.2018</t>
+          <t>30.03.2025</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1456,12 +1456,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Magnus Jåtten</t>
+          <t>Ole Peder Uthus Solum</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.05,08</t>
+          <t>1.05,06</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>30.03.2025</t>
+          <t>29.09.2018</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1666,12 +1666,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Joakim I. Larsen</t>
+          <t>Balder Baarholm</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.05,36</t>
+          <t>1.05,35</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>31.10.2009</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Balder Baarholm</t>
+          <t>Joakim I. Larsen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.05,35</t>
+          <t>1.05,36</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>31.10.2009</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2296,12 +2296,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Jonas Fiskaa Barstad</t>
+          <t>Einar Woldseth</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.08,06</t>
+          <t>1.08,04</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>18.06.2016</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2331,12 +2331,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Einar Woldseth</t>
+          <t>Brage Wetjen Sigernes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.08,04</t>
+          <t>1.08,05</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2344,12 +2344,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>11.02.2023</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2366,12 +2366,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Brage Wetjen Sigernes</t>
+          <t>Jonas Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.08,05</t>
+          <t>1.08,06</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2379,12 +2379,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>11.02.2023</t>
+          <t>18.06.2016</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3451,12 +3451,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Stian Nilsen</t>
+          <t>Bjørn Eimar Endal Sorteberg</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1.11,92</t>
+          <t>1.11,95</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>17.10.2010</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3486,12 +3486,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bjørn Eimar Endal Sorteberg</t>
+          <t>Stian Nilsen</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1.11,95</t>
+          <t>1.11,92</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>17.10.2010</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3626,7 +3626,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Carl Victor Mukisa Nygård</t>
+          <t>Erlend Søderlund</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3639,12 +3639,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>15.01.2023</t>
+          <t>27.10.2012</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3661,7 +3661,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Erlend Søderlund</t>
+          <t>Carl Victor Mukisa Nygård</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3674,12 +3674,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>27.10.2012</t>
+          <t>15.01.2023</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3801,12 +3801,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Håkon Johansen</t>
+          <t>Lucas Nachappa Muthanna</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1.13,52</t>
+          <t>1.13,51</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3814,12 +3814,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>24.03.2007</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3836,12 +3836,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Lucas Nachappa Muthanna</t>
+          <t>Håkon Johansen</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1.13,51</t>
+          <t>1.13,52</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3849,12 +3849,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>24.03.2007</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4326,25 +4326,25 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Theodor Solheim</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1.15,86</t>
+          <t>1.15,54</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>21.10.2017</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4361,12 +4361,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Bjørn Erik Ystenes</t>
+          <t>Theodor Solheim</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1.15,85</t>
+          <t>1.15,86</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>06.10.2012</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4396,25 +4396,25 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Leif Roar Nordgaard</t>
+          <t>Bjørn Erik Ystenes</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1.15,90</t>
+          <t>1.15,85</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>13.03.2010</t>
+          <t>06.10.2012</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4431,7 +4431,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Lionel Nicolas Weissbrodt</t>
+          <t>Leif Roar Nordgaard</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>22.10.2023</t>
+          <t>13.03.2010</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4466,25 +4466,25 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Øystein Wethe Hanssen</t>
+          <t>Lionel Nicolas Weissbrodt</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1.16,35</t>
+          <t>1.15,90</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>07.03.2009</t>
+          <t>22.10.2023</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4501,25 +4501,25 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bjørn Pedersen</t>
+          <t>Øystein Wethe Hanssen</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1.16,58</t>
+          <t>1.16,35</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>02.10.2010</t>
+          <t>07.03.2009</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4536,25 +4536,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Magnus Svindland Næsgaard</t>
+          <t>Bjørn Pedersen</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1.16,63</t>
+          <t>1.16,58</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
+          <t>02.10.2010</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4571,20 +4571,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Finn Øivind Fevang</t>
+          <t>Magnus Svindland Næsgaard</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1.16,81</t>
+          <t>1.16,63</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>08.10.2005</t>
+          <t>28.01.2024</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4606,12 +4606,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Mattias Isaksen</t>
+          <t>Finn Øivind Fevang</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1.16,74</t>
+          <t>1.16,81</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>08.10.2005</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4641,12 +4641,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Tony Christopher Moflag</t>
+          <t>Mattias Isaksen</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1.16,75</t>
+          <t>1.16,74</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>01.03.2008</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4676,20 +4676,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>David Fjeld</t>
+          <t>Tony Christopher Moflag</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.17,28</t>
+          <t>1.16,75</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>06.10.2007</t>
+          <t>01.03.2008</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4711,12 +4711,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Dhanushi Attanapola</t>
+          <t>David Fjeld</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1.28,60</t>
+          <t>1.17,28</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>24.01.2009</t>
+          <t>06.10.2007</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4746,20 +4746,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Storm Olander Øvergård</t>
+          <t>Dhanushi Attanapola</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1.17,82</t>
+          <t>1.28,60</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>24.01.2009</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4781,16 +4781,16 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ellen Kristine Eidsmo Hova</t>
+          <t>Storm Olander Øvergård</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1.30,37</t>
+          <t>1.17,82</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4816,20 +4816,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Thomas Stur Ekrem</t>
+          <t>Ellen Kristine Eidsmo Hova</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1.19,04</t>
+          <t>1.30,37</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>17.06.2023</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4851,12 +4851,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Thomas Stur Ekrem</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1.19,02</t>
+          <t>1.19,04</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>17.06.2023</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4886,20 +4886,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Sondre Aakerholm Adsen</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.19,11</t>
+          <t>1.19,02</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4921,20 +4921,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Edvin Grenne Spangelo</t>
+          <t>Sondre Aakerholm Adsen</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.19,35</t>
+          <t>1.19,11</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4956,20 +4956,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Leander Gisvold Restad</t>
+          <t>Edvin Grenne Spangelo</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.19,65</t>
+          <t>1.19,35</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4991,16 +4991,16 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Kristian Myhr Høgstøl</t>
+          <t>Leander Gisvold Restad</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1.19,94</t>
+          <t>1.19,65</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -5026,25 +5026,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Anton Sergeevich Gorodkov</t>
+          <t>Kristian Myhr Høgstøl</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.20,03</t>
+          <t>1.19,94</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>24.09.2016</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5061,25 +5061,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>David Csejtey</t>
+          <t>Anton Sergeevich Gorodkov</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1.20,10</t>
+          <t>1.20,03</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>24.09.2016</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5096,25 +5096,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ailin Østerås</t>
+          <t>David Csejtey</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1.32,00</t>
+          <t>1.20,10</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>01.10.2011</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5131,25 +5131,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Daniel Haugen Ngwenya</t>
+          <t>Ailin Østerås</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1.20,37</t>
+          <t>1.32,00</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>19.04.2008</t>
+          <t>01.10.2011</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5166,25 +5166,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Eirik Hamnes Ulriksen</t>
+          <t>Daniel Haugen Ngwenya</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1.20,49</t>
+          <t>1.20,37</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>19.04.2008</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5201,25 +5201,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Lin Carola Magdalene Nygren</t>
+          <t>Eirik Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.32,50</t>
+          <t>1.20,49</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5236,12 +5236,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Vegard Maaø</t>
+          <t>Lin Carola Magdalene Nygren</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.20,57</t>
+          <t>1.32,50</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>05.12.2009</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5271,25 +5271,25 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Vegard S. Wigum</t>
+          <t>Vegard Maaø</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.21,00</t>
+          <t>1.20,57</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>05.12.2009</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5306,20 +5306,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Philip Giske Nyman</t>
+          <t>Vegard S. Wigum</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.21,33</t>
+          <t>1.21,00</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5341,25 +5341,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Kristin Stallvik</t>
+          <t>Philip Giske Nyman</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.33,46</t>
+          <t>1.21,33</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>26.03.2017</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5376,25 +5376,25 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Paal Aagaard</t>
+          <t>Kristin Stallvik</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.21,78</t>
+          <t>1.33,46</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>13.03.2009</t>
+          <t>26.03.2017</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Kirkenes</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5411,25 +5411,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Conrad Sippala Hassel</t>
+          <t>Paal Aagaard</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1.22,37</t>
+          <t>1.21,78</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>13.03.2009</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kirkenes</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5446,12 +5446,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ingjerd Jepsen Vegge</t>
+          <t>Conrad Sippala Hassel</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.34,37</t>
+          <t>1.22,37</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>12.11.2011</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5481,25 +5481,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Eilert Juul Wolfgang</t>
+          <t>Ingjerd Jepsen Vegge</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.22,75</t>
+          <t>1.34,37</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>26.10.2013</t>
+          <t>12.11.2011</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5516,25 +5516,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Christian Dahle-Øfsti</t>
+          <t>Eilert Juul Wolfgang</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1.22,98</t>
+          <t>1.22,75</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>02.06.2013</t>
+          <t>26.10.2013</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5551,25 +5551,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Brage Gylseth Dahl</t>
+          <t>Christian Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1.23,11</t>
+          <t>1.22,98</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>02.06.2013</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5586,20 +5586,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Njål Høie</t>
+          <t>Brage Gylseth Dahl</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1.23,33</t>
+          <t>1.23,11</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>20.06.2015</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5621,20 +5621,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Oscar Kvaløy Tiller</t>
+          <t>Njål Høie</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.23,65</t>
+          <t>1.23,33</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>20.06.2015</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5656,25 +5656,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Liv Løfaldli</t>
+          <t>Oscar Kvaløy Tiller</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1.36,36</t>
+          <t>1.23,65</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5691,25 +5691,25 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Isabel Ødegård Pedersen</t>
+          <t>Liv Løfaldli</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1.36,57</t>
+          <t>1.36,36</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5726,20 +5726,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Fredrik Holberg</t>
+          <t>Isabel Ødegård Pedersen</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1.26,71</t>
+          <t>1.36,57</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5761,20 +5761,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Vår Kristine Sollien Skar</t>
+          <t>Fredrik Holberg</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1.39,74</t>
+          <t>1.26,71</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>05.03.2016</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5831,20 +5831,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Gunhild Furuholt Valle</t>
+          <t>Vår Kristine Sollien Skar</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1.39,91</t>
+          <t>1.39,74</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>05.03.2016</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5866,25 +5866,25 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Jonas D. Lesund</t>
+          <t>Gunhild Furuholt Valle</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1.27,68</t>
+          <t>1.39,91</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>10.11.2012</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5901,25 +5901,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Eirik Ingeberg Garshol</t>
+          <t>Jonas D. Lesund</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1.28,76</t>
+          <t>1.27,68</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>10.11.2012</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5936,20 +5936,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ingeborg Strandenes</t>
+          <t>Eirik Ingeberg Garshol</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1.42,81</t>
+          <t>1.28,76</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5971,20 +5971,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Edvin Aurstad Bergum</t>
+          <t>Ingeborg Strandenes</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1.30,05</t>
+          <t>1.42,81</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>02.03.2024</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6006,20 +6006,20 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Even Greiff</t>
+          <t>Edvin Aurstad Bergum</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1.30,35</t>
+          <t>1.30,05</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
+          <t>02.03.2024</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6041,25 +6041,25 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Bjørn Marius Hegge</t>
+          <t>Even Greiff</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1.30,53</t>
+          <t>1.30,35</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>10.03.2019</t>
+          <t>28.01.2024</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6076,25 +6076,25 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>William Wale</t>
+          <t>Bjørn Marius Hegge</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1.30,88</t>
+          <t>1.30,53</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>10.03.2019</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6111,16 +6111,16 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Jakob M. Tjøstheim</t>
+          <t>William Wale</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1.31,77</t>
+          <t>1.30,88</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -6146,25 +6146,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Maiken Belsvik</t>
+          <t>Jakob M. Tjøstheim</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1.46,25</t>
+          <t>1.31,77</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>12.03.2005</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6181,25 +6181,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Kolbjørn Renhult Skaug</t>
+          <t>Maiken Belsvik</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1.32,91</t>
+          <t>1.46,25</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>25.10.2014</t>
+          <t>12.03.2005</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6216,12 +6216,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Thomas Paulsen</t>
+          <t>Kolbjørn Renhult Skaug</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1.32,87</t>
+          <t>1.32,91</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6229,12 +6229,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>01.03.2014</t>
+          <t>25.10.2014</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6251,20 +6251,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Robin von Bargen</t>
+          <t>Thomas Paulsen</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1.33,37</t>
+          <t>1.32,87</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>30.10.2010</t>
+          <t>01.03.2014</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6321,25 +6321,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Magnus Bakkejord</t>
+          <t>Robin von Bargen</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1.33,47</t>
+          <t>1.33,37</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>12.11.2011</t>
+          <t>30.10.2010</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6356,20 +6356,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Peder Lund Juul</t>
+          <t>Magnus Bakkejord</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1.33,80</t>
+          <t>1.33,47</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>02.11.2024</t>
+          <t>12.11.2011</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6391,25 +6391,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sondre Thorgaard</t>
+          <t>Peder Lund Juul</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1.34,01</t>
+          <t>1.33,80</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>02.10.2021</t>
+          <t>02.11.2024</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6426,25 +6426,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Marcus Thalberg Fagerheim</t>
+          <t>Sondre Thorgaard</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1.34,06</t>
+          <t>1.34,01</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>01.10.2011</t>
+          <t>02.10.2021</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6461,25 +6461,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Jon Noé Høye</t>
+          <t>Marcus Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1.35,30</t>
+          <t>1.34,06</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>21.10.2018</t>
+          <t>01.10.2011</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6496,20 +6496,20 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Marit Søberg</t>
+          <t>Jon Noé Høye</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1.49,52</t>
+          <t>1.35,30</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>03.10.2009</t>
+          <t>21.10.2018</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6531,25 +6531,25 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Tymofii Dzisiak</t>
+          <t>Marit Søberg</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1.35,80</t>
+          <t>1.49,52</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>03.10.2009</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6566,25 +6566,25 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Anton Hoel</t>
+          <t>Tymofii Dzisiak</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1.36,50</t>
+          <t>1.35,80</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>10.11.2012</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6601,12 +6601,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Kasper Steen Jensen</t>
+          <t>Anton Hoel</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1.36,32</t>
+          <t>1.36,50</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -6614,12 +6614,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>10.11.2012</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6636,20 +6636,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Ingolf Nicholay Stenskrog</t>
+          <t>Kasper Steen Jensen</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1.36,75</t>
+          <t>1.36,32</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>02.11.2013</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6671,20 +6671,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>Ingolf Nicholay Stenskrog</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1.37,02</t>
+          <t>1.36,75</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>02.11.2013</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6706,12 +6706,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Filip Dalsaune</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1.36,99</t>
+          <t>1.37,02</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -6741,20 +6741,20 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cornelius Wik</t>
+          <t>Filip Dalsaune</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1.37,76</t>
+          <t>1.36,99</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6776,16 +6776,16 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Arild Håkonsen Stixrud</t>
+          <t>Cornelius Wik</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1.38,88</t>
+          <t>1.37,76</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -6811,20 +6811,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Rasmus Larsen Natvig</t>
+          <t>Arild Håkonsen Stixrud</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1.39,55</t>
+          <t>1.38,88</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6846,20 +6846,20 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Lukas Katekawa Theting</t>
+          <t>Rasmus Larsen Natvig</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1.40,58</t>
+          <t>1.39,55</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>07.03.2020</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6881,25 +6881,25 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Magnus Hestvik Larsen</t>
+          <t>Lukas Katekawa Theting</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1.41,79</t>
+          <t>1.40,58</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>07.03.2020</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6916,25 +6916,25 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Christopher Janjua</t>
+          <t>Magnus Hestvik Larsen</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1.42,83</t>
+          <t>1.41,79</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>03.04.2005</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6951,12 +6951,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Randi Leiknes</t>
+          <t>Christopher Janjua</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1.57,85</t>
+          <t>1.42,83</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>23.02.2008</t>
+          <t>03.04.2005</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6986,12 +6986,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Sigurd Øie Seland</t>
+          <t>Randi Leiknes</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1.42,68</t>
+          <t>1.57,85</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -6999,12 +6999,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
+          <t>23.02.2008</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7021,20 +7021,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Johan Mostervik</t>
+          <t>Sigurd Øie Seland</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1.43,66</t>
+          <t>1.42,68</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>20.06.2015</t>
+          <t>28.01.2024</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7056,25 +7056,25 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Ingvar Høgås Wik</t>
+          <t>Johan Mostervik</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>1.45,00</t>
+          <t>1.43,66</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>08.11.2014</t>
+          <t>20.06.2015</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7091,25 +7091,25 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sigurd Kristoffersen Torvik</t>
+          <t>Ingvar Høgås Wik</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1.48,29</t>
+          <t>1.45,00</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>08.11.2014</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7126,25 +7126,25 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Brage Kaminka Heiberg</t>
+          <t>Sigurd Kristoffersen Torvik</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>1.48,65</t>
+          <t>1.48,29</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>15.04.2023</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7161,25 +7161,25 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>Brage Kaminka Heiberg</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>1.48,78</t>
+          <t>1.48,65</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>19.03.2023</t>
+          <t>15.04.2023</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7196,25 +7196,25 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Jørgen Norvik Skeide</t>
+          <t>Bernard Smuk</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>1.49,48</t>
+          <t>1.48,78</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>29.10.2005</t>
+          <t>19.03.2023</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7266,25 +7266,25 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Einar Risholt Moen</t>
+          <t>Jørgen Norvik Skeide</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1.49,65</t>
+          <t>1.49,48</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>02.03.2013</t>
+          <t>29.10.2005</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7301,20 +7301,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Fredrik Hårsaker Myrenget</t>
+          <t>Einar Risholt Moen</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1.52,91</t>
+          <t>1.49,65</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>20.01.2018</t>
+          <t>02.03.2013</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -7336,12 +7336,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Alexander Vik Tastad</t>
+          <t>Fredrik Hårsaker Myrenget</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1.52,83</t>
+          <t>1.52,91</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -7349,12 +7349,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>01.04.2006</t>
+          <t>20.01.2018</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7371,12 +7371,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Jesper Øvermo Johansen</t>
+          <t>Alexander Vik Tastad</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>1.52,75</t>
+          <t>1.52,83</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>07.03.2020</t>
+          <t>01.04.2006</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7406,16 +7406,16 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Nataniel Skjøndal-Bar</t>
+          <t>Jesper Øvermo Johansen</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>1.53,51</t>
+          <t>1.52,75</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -7441,20 +7441,20 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Hans Otto Søyseth</t>
+          <t>Nataniel Skjøndal-Bar</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1.54,28</t>
+          <t>1.53,51</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>07.03.2015</t>
+          <t>07.03.2020</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7476,12 +7476,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Vegard Olsvold</t>
+          <t>Hans Otto Søyseth</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1.53,90</t>
+          <t>1.54,28</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>07.03.2015</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7511,20 +7511,20 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>William Johannes Kirkelund Kristiansen</t>
+          <t>Vegard Olsvold</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1.54,57</t>
+          <t>1.53,90</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>14.11.2021</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7546,20 +7546,20 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Emil Gustafson</t>
+          <t>William Johannes Kirkelund Kristiansen</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1.57,75</t>
+          <t>1.54,57</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>02.03.2013</t>
+          <t>14.11.2021</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -7581,20 +7581,20 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Guangzhi Ma</t>
+          <t>Emil Gustafson</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1.59,27</t>
+          <t>1.57,75</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>19.03.2006</t>
+          <t>02.03.2013</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7616,20 +7616,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Mikkel Fenstad</t>
+          <t>Guangzhi Ma</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2.01,26</t>
+          <t>1.59,27</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>02.03.2024</t>
+          <t>19.03.2006</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7651,25 +7651,25 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Eirik Solligård</t>
+          <t>Mikkel Fenstad</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2.01,90</t>
+          <t>2.01,26</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>02.03.2024</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7686,25 +7686,25 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Daniel Karlsen</t>
+          <t>Eirik Solligård</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2.02,10</t>
+          <t>2.01,90</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7721,12 +7721,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Gajithsing Ajeethsing</t>
+          <t>Daniel Karlsen</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2.02,21</t>
+          <t>2.02,10</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>02.10.2021</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7756,20 +7756,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Erik Solbakken Andersen</t>
+          <t>Gajithsing Ajeethsing</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2.02,75</t>
+          <t>2.02,21</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>02.03.2024</t>
+          <t>02.10.2021</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7791,12 +7791,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Nikan Ommani</t>
+          <t>Erik Solbakken Andersen</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2.02,99</t>
+          <t>2.02,75</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>02.03.2024</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7826,20 +7826,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Jo Svendsen</t>
+          <t>Nikan Ommani</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2.03,34</t>
+          <t>2.02,99</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>07.03.2020</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7861,25 +7861,25 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Markus Indergård Holm</t>
+          <t>Jo Svendsen</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2.04,49</t>
+          <t>2.03,34</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>19.04.2008</t>
+          <t>07.03.2020</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -7896,25 +7896,25 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Morten Johansen</t>
+          <t>Markus Indergård Holm</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2.09,11</t>
+          <t>2.04,49</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>03.04.2005</t>
+          <t>19.04.2008</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7931,20 +7931,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Arvid Hageler</t>
+          <t>Morten Johansen</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2.17,60</t>
+          <t>2.09,11</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>30.03.2025</t>
+          <t>03.04.2005</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -7966,20 +7966,20 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Lars Berg Lerstad</t>
+          <t>Arvid Hageler</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2.19,50</t>
+          <t>2.17,60</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>02.03.2013</t>
+          <t>30.03.2025</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -8001,16 +8001,16 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Theodor Hoff</t>
+          <t>Lars Berg Lerstad</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2.19,62</t>
+          <t>2.19,50</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -8036,33 +8036,68 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
+          <t>Theodor Hoff</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2.19,62</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>43</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>02.03.2013</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
           <t>Mattis Holt</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>2.54,42</t>
         </is>
       </c>
-      <c r="C218" t="n">
+      <c r="C219" t="n">
         <v>22</v>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>03.04.2005</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -8135,7 +8170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8498,12 +8533,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Elise Lund</t>
+          <t>Karoline Volden</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.09,68</t>
+          <t>1.09,69</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -8511,12 +8546,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27.05.2017</t>
+          <t>30.09.2017</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -8533,12 +8568,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Karoline Volden</t>
+          <t>Elise Lund</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.09,69</t>
+          <t>1.09,68</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -8546,12 +8581,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30.09.2017</t>
+          <t>27.05.2017</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -9058,7 +9093,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Andrea Lintorp</t>
+          <t>Viktoria Juel</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -9071,12 +9106,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>23.11.2013</t>
+          <t>06.11.2010</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -9093,7 +9128,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Viktoria Juel</t>
+          <t>Andrea Lintorp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -9106,12 +9141,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>06.11.2010</t>
+          <t>23.11.2013</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -9198,12 +9233,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Anne Grete Haugan</t>
+          <t>Signe Hogstad</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.13,91</t>
+          <t>1.13,94</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -9211,7 +9246,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10.03.2018</t>
+          <t>30.03.2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9233,12 +9268,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Signe Hogstad</t>
+          <t>Anne Grete Haugan</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.13,94</t>
+          <t>1.13,91</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -9246,7 +9281,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>30.03.2025</t>
+          <t>10.03.2018</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9338,12 +9373,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sissel Furuholt Valle</t>
+          <t>Malin Schanke Tømmervik</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.14,58</t>
+          <t>1.14,56</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -9351,12 +9386,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>05.12.2009</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -9373,12 +9408,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Malin Schanke Tømmervik</t>
+          <t>Sissel Furuholt Valle</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1.14,56</t>
+          <t>1.14,58</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -9386,12 +9421,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>05.12.2009</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -9898,7 +9933,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Julie Hegvik</t>
+          <t>Vilde Austmo</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -9911,12 +9946,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>19.10.2008</t>
+          <t>20.01.2019</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lambertseter</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -9933,7 +9968,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Vilde Austmo</t>
+          <t>Julie Hegvik</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -9946,12 +9981,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>20.01.2019</t>
+          <t>19.10.2008</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lambertseter</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -10143,12 +10178,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nora Yian Baldersheim</t>
+          <t>Olea Winnberg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1.18,41</t>
+          <t>1.18,42</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -10156,12 +10191,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>24.10.2021</t>
+          <t>19.10.2024</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -10178,12 +10213,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Olea Winnberg</t>
+          <t>Nora Yian Baldersheim</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.18,42</t>
+          <t>1.18,41</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -10191,12 +10226,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>19.10.2024</t>
+          <t>24.10.2021</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -10213,12 +10248,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Mari Helen Hammer</t>
+          <t>Thea Haugan</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1.18,50</t>
+          <t>1.18,45</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -10226,7 +10261,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>07.10.2006</t>
+          <t>07.03.2020</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10248,12 +10283,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Thea Haugan</t>
+          <t>Mari Helen Hammer</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.18,45</t>
+          <t>1.18,50</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -10261,7 +10296,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>07.03.2020</t>
+          <t>07.10.2006</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10528,7 +10563,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Torborg Duesten Blokkum</t>
+          <t>Sylvia Yang</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -10541,12 +10576,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>02.04.2011</t>
+          <t>26.01.2007</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -10598,7 +10633,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sylvia Yang</t>
+          <t>Torborg Duesten Blokkum</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -10611,12 +10646,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>26.01.2007</t>
+          <t>02.04.2011</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -11368,12 +11403,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Nina Alicja Skarø</t>
+          <t>Hedda Østgaard</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1.22,22</t>
+          <t>1.22,24</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -11381,12 +11416,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>01.04.2017</t>
+          <t>14.11.2009</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -11403,12 +11438,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Hedda Østgaard</t>
+          <t>Nina Alicja Skarø</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1.22,24</t>
+          <t>1.22,22</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -11416,12 +11451,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14.11.2009</t>
+          <t>01.04.2017</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -11578,12 +11613,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Tone Killingberg</t>
+          <t>Emre Vold Kirkvold</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1.23,10</t>
+          <t>1.12,43</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -11591,7 +11626,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>09.04.2016</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -11613,12 +11648,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Emre Vold Kirkvold</t>
+          <t>Tone Killingberg</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1.12,43</t>
+          <t>1.23,10</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -11626,7 +11661,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>09.04.2016</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11753,12 +11788,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Izabele Farias Ribeiro</t>
+          <t>Erika Nicole Hagen</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1.23,81</t>
+          <t>1.23,79</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -11766,12 +11801,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>08.11.2014</t>
+          <t>12.02.2022</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11788,12 +11823,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Erika Nicole Hagen</t>
+          <t>Izabele Farias Ribeiro</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1.23,79</t>
+          <t>1.23,81</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -11801,12 +11836,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>12.02.2022</t>
+          <t>08.11.2014</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -12173,25 +12208,25 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Oline Skjønberg</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1.15,54</t>
+          <t>1.26,89</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>21.10.2017</t>
+          <t>30.11.2019</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -12208,12 +12243,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Oline Skjønberg</t>
+          <t>Frida Pauline Busch</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1.26,89</t>
+          <t>1.26,85</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -12221,12 +12256,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>30.11.2019</t>
+          <t>24.10.2021</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -12243,25 +12278,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Frida Pauline Busch</t>
+          <t>Nicole Kulagina</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1.26,85</t>
+          <t>1.26,98</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>24.10.2021</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -12278,20 +12313,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Nicole Kulagina</t>
+          <t>Juliane-Linnea Tybell Svenum</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1.26,98</t>
+          <t>1.27,07</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>20.06.2021</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -12313,25 +12348,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Juliane-Linnea Tybell Svenum</t>
+          <t>Sigrid Eldholm</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1.27,07</t>
+          <t>1.27,51</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>20.06.2021</t>
+          <t>02.03.2019</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Pirbadet</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -12348,25 +12383,25 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Sigrid Eldholm</t>
+          <t>Ola vatn Gundersen</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1.27,51</t>
+          <t>1.16,37</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>02.03.2019</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Pirbadet</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -12383,25 +12418,25 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ola vatn Gundersen</t>
+          <t>Silje Dahle</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.16,37</t>
+          <t>1.27,78</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>03.03.2018</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -12418,12 +12453,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Silje Dahle</t>
+          <t>Hilde Stene Rygh</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1.27,78</t>
+          <t>1.27,80</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -12431,12 +12466,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>03.03.2018</t>
+          <t>02.04.2011</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -12453,25 +12488,25 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Hilde Stene Rygh</t>
+          <t>Line Steine Bertelsen</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1.27,80</t>
+          <t>1.27,91</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>02.04.2011</t>
+          <t>02.10.2021</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -12488,25 +12523,25 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Line Steine Bertelsen</t>
+          <t>Julie Wiik Arnesen</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1.27,91</t>
+          <t>1.28,04</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>02.10.2021</t>
+          <t>30.11.2019</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -12523,7 +12558,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Julie Wiik Arnesen</t>
+          <t>Sofia Bjørklund Mora</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -12536,12 +12571,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>30.11.2019</t>
+          <t>20.06.2015</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -12558,20 +12593,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Sofia Bjørklund Mora</t>
+          <t>Helle Johnsen Selsås</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1.28,04</t>
+          <t>1.28,49</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>20.06.2015</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -12593,20 +12628,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Helle Johnsen Selsås</t>
+          <t>Sara Skaalvik Trelstad</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.28,49</t>
+          <t>1.28,59</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>01.03.2014</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -12628,25 +12663,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sara Skaalvik Trelstad</t>
+          <t>Sunniva Belsnes</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.28,59</t>
+          <t>1.29,01</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>01.03.2014</t>
+          <t>08.10.2016</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -12663,25 +12698,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sunniva Belsnes</t>
+          <t>Michaela Josefin Abeleva Barrera</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.29,01</t>
+          <t>1.29,24</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>08.10.2016</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -12698,25 +12733,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Michaela Josefin Abeleva Barrera</t>
+          <t>Sofie Hoff</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1.29,24</t>
+          <t>1.30,19</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>06.04.2024</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -12733,25 +12768,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sofie Hoff</t>
+          <t>Helene Marie Haram</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.30,19</t>
+          <t>1.30,86</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>27.10.2019</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -12768,25 +12803,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Helene Marie Haram</t>
+          <t>Pia Helena Wildhagen</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1.30,86</t>
+          <t>1.31,30</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>27.10.2019</t>
+          <t>10.03.2018</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -12803,20 +12838,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Pia Helena Wildhagen</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1.31,30</t>
+          <t>1.31,48</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>10.03.2018</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -12838,25 +12873,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Ida Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1.31,48</t>
+          <t>1.31,87</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -12873,25 +12908,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Ida Fiskaa Barstad</t>
+          <t>Selma Strandjord Lillerødvann</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1.31,87</t>
+          <t>1.32,27</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>28.01.2024</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -12908,20 +12943,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Selma Strandjord Lillerødvann</t>
+          <t>Magne Petersen</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1.32,27</t>
+          <t>1.20,63</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
+          <t>02.03.2013</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -12943,12 +12978,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Magne Petersen</t>
+          <t>Alice Sophie Mittet</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1.20,63</t>
+          <t>1.32,40</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -12956,7 +12991,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>02.03.2013</t>
+          <t>05.03.2016</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -12978,20 +13013,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Alice Sophie Mittet</t>
+          <t>Helle Lundgren</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.32,40</t>
+          <t>1.32,62</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>05.03.2016</t>
+          <t>17.06.2023</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -13013,12 +13048,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Helle Lundgren</t>
+          <t>Chloe Branlat</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1.32,62</t>
+          <t>1.32,54</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -13026,12 +13061,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>17.06.2023</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -13048,25 +13083,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Chloe Branlat</t>
+          <t>Elsa Dragsten Wake</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1.32,54</t>
+          <t>1.32,65</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -13083,20 +13118,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Elsa Dragsten Wake</t>
+          <t>Dorthe Marie Schevik</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.32,65</t>
+          <t>1.32,78</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>21.05.2005</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -13153,20 +13188,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Dorthe Marie Schevik</t>
+          <t>Aida Smalø Moen</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1.32,78</t>
+          <t>1.32,96</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>21.05.2005</t>
+          <t>07.03.2015</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -13188,20 +13223,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Aida Smalø Moen</t>
+          <t>Sigrid Moen Henriksen</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1.32,96</t>
+          <t>1.33,83</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>07.03.2015</t>
+          <t>17.06.2023</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -13223,20 +13258,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sigrid Moen Henriksen</t>
+          <t>Ane Hegland</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1.33,83</t>
+          <t>1.33,92</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>17.06.2023</t>
+          <t>04.02.2005</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -13258,25 +13293,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ane Hegland</t>
+          <t>Madeleine Tran Wæraas</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1.33,92</t>
+          <t>1.34,52</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>04.02.2005</t>
+          <t>29.09.2019</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -13293,25 +13328,25 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Madeleine Tran Wæraas</t>
+          <t>Synnøve Fevang</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>1.34,52</t>
+          <t>1.34,76</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>29.09.2019</t>
+          <t>04.02.2006</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Husebybadet</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -13328,20 +13363,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Synnøve Fevang</t>
+          <t>Inga Victoria Kirabo Nygård</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1.34,76</t>
+          <t>1.35,44</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>04.02.2006</t>
+          <t>19.06.2022</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -13363,20 +13398,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Inga Victoria Kirabo Nygård</t>
+          <t>Susanne Kolloen</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1.35,44</t>
+          <t>1.35,68</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>19.06.2022</t>
+          <t>07.03.2020</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -13398,20 +13433,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Susanne Kolloen</t>
+          <t>Aurora Johanne Mittet</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1.35,68</t>
+          <t>1.35,93</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>07.03.2020</t>
+          <t>05.03.2016</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -13433,20 +13468,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Aurora Johanne Mittet</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1.35,93</t>
+          <t>1.36,09</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>05.03.2016</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -13468,20 +13503,20 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Emma Nedeea Hagen</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1.36,09</t>
+          <t>1.37,14</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>06.03.2022</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -13503,25 +13538,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Emma Nedeea Hagen</t>
+          <t>Mia Bretun Finserå</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1.37,14</t>
+          <t>1.38,06</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>06.03.2022</t>
+          <t>27.10.2012</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -13538,25 +13573,25 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Mia Bretun Finserå</t>
+          <t>Victoria Dessen</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1.38,06</t>
+          <t>1.38,99</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>27.10.2012</t>
+          <t>12.03.2005</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -13573,20 +13608,20 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Victoria Dessen</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1.38,99</t>
+          <t>1.39,28</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>12.03.2005</t>
+          <t>16.02.2019</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -13608,25 +13643,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Frida Merethe Norli Eidsvåg</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1.39,28</t>
+          <t>1.39,38</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>16.02.2019</t>
+          <t>18.06.2016</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -13643,20 +13678,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Frida Merethe Norli Eidsvåg</t>
+          <t>Aurora S. Juel</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1.39,38</t>
+          <t>1.39,56</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>18.06.2016</t>
+          <t>03.03.2012</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -13678,20 +13713,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Aurora S. Juel</t>
+          <t>Amalie Gylseth Dahl</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1.39,56</t>
+          <t>1.40,60</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>03.03.2012</t>
+          <t>01.10.2022</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -13713,25 +13748,25 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Amalie Gylseth Dahl</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1.40,60</t>
+          <t>1.41,13</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>01.10.2022</t>
+          <t>09.11.2013</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -13748,25 +13783,25 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Ingrid Lianes</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1.41,13</t>
+          <t>1.41,31</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>09.11.2013</t>
+          <t>19.04.2009</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -13783,25 +13818,25 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ingrid Lianes</t>
+          <t>Aurora Dahl Bere</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1.41,31</t>
+          <t>1.42,72</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.04.2009</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -13818,20 +13853,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Aurora Dahl Bere</t>
+          <t>Ronja Emilia Wikström</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1.42,72</t>
+          <t>1.43,60</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>17.06.2023</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -13853,25 +13888,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ronja Emilia Wikström</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1.43,60</t>
+          <t>1.44,25</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>17.06.2023</t>
+          <t>25.10.2014</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -13888,25 +13923,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1.44,25</t>
+          <t>1.44,37</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>25.10.2014</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -13923,25 +13958,25 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Hedda Gätzschmann</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1.44,37</t>
+          <t>1.45,12</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -13958,25 +13993,25 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Hedda Gätzschmann</t>
+          <t>Else Malin Meidal</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1.45,12</t>
+          <t>1.45,94</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>27.10.2012</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -14028,25 +14063,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Else Malin Meidal</t>
+          <t>Lea almaas</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1.45,94</t>
+          <t>1.47,10</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>27.10.2012</t>
+          <t>03.03.2012</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -14063,20 +14098,20 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Lea almaas</t>
+          <t>Louise Thys</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1.47,10</t>
+          <t>1.47,86</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>03.03.2012</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -14098,20 +14133,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Louise Thys</t>
+          <t>Lena Sofie Hammer</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1.47,86</t>
+          <t>1.48,54</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>21.05.2005</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -14133,25 +14168,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Lena Sofie Hammer</t>
+          <t>Karoline Skjevik</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1.48,54</t>
+          <t>1.48,83</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>21.05.2005</t>
+          <t>23.02.2008</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -14168,25 +14203,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Karoline Skjevik</t>
+          <t>Nicoline Vinje</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1.48,83</t>
+          <t>1.51,56</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>23.02.2008</t>
+          <t>16.03.2025</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -14203,25 +14238,25 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Nicoline Vinje</t>
+          <t>Nora Grande Bjerkan</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1.51,56</t>
+          <t>1.52,27</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>16.03.2025</t>
+          <t>19.06.2010</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -14238,25 +14273,25 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Nora Grande Bjerkan</t>
+          <t>Emilie Caitlin Daquilante</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1.52,27</t>
+          <t>1.53,38</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>19.06.2010</t>
+          <t>27.10.2012</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -14273,25 +14308,25 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Emilie Caitlin Daquilante</t>
+          <t>Kaia Winnberg</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1.53,38</t>
+          <t>1.53,99</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>27.10.2012</t>
+          <t>17.03.2024</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -14343,25 +14378,25 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Kaia Winnberg</t>
+          <t>Ramona Vutudal</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1.53,99</t>
+          <t>1.55,13</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>17.03.2024</t>
+          <t>21.09.2008</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -14413,20 +14448,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ramona Vutudal</t>
+          <t>Ilaria Kari Cherubini</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>1.55,13</t>
+          <t>1.56,33</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>21.09.2008</t>
+          <t>26.04.2025</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -14448,25 +14483,25 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Ilaria Kari Cherubini</t>
+          <t>Sara Olea  Riseth Moe</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1.56,33</t>
+          <t>1.56,84</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>26.04.2025</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -14483,12 +14518,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Sara Olea  Riseth Moe</t>
+          <t>Live Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1.56,84</t>
+          <t>1.56,70</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -14496,12 +14531,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -14518,20 +14553,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Live Hamnes Ulriksen</t>
+          <t>Jassmitha Ajeethsing</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1.56,70</t>
+          <t>1.57,13</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>02.10.2021</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -14553,25 +14588,25 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Jassmitha Ajeethsing</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1.57,13</t>
+          <t>1.57,55</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>02.10.2021</t>
+          <t>06.04.2024</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -14588,25 +14623,25 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Marita Fuglestad Løkken</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1.57,55</t>
+          <t>1.57,94</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>09.11.2013</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -14623,25 +14658,25 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Marita Fuglestad Løkken</t>
+          <t>Phoebe Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>1.57,94</t>
+          <t>1.59,31</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>09.11.2013</t>
+          <t>02.03.2013</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -14693,20 +14728,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Phoebe Thalberg Fagerheim</t>
+          <t>Miriam Bianchi Dos Santos</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1.59,31</t>
+          <t>2.00,90</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>02.03.2013</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -14728,20 +14763,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Miriam Bianchi Dos Santos</t>
+          <t>Camilla Gervasoni</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2.00,90</t>
+          <t>2.01,28</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>03.03.2012</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -14763,20 +14798,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Camilla Gervasoni</t>
+          <t>Eline Nergård Wilhelmsen</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2.01,28</t>
+          <t>2.01,89</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>03.03.2012</t>
+          <t>08.12.2024</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -14798,20 +14833,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Eline Nergård Wilhelmsen</t>
+          <t>Kristina Bragadottir</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2.01,89</t>
+          <t>2.05,14</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>08.12.2024</t>
+          <t>03.03.2012</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -14833,20 +14868,20 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Kristina Bragadottir</t>
+          <t>Hedda Larsen Natvig</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2.05,14</t>
+          <t>2.05,45</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>03.03.2012</t>
+          <t>17.06.2023</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -14903,20 +14938,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Hedda Larsen Natvig</t>
+          <t>Connie Rakel Lånke</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2.05,45</t>
+          <t>2.07,34</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>17.06.2023</t>
+          <t>01.03.2014</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -14938,12 +14973,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Connie Rakel Lånke</t>
+          <t>Sofie Havig</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2.07,34</t>
+          <t>2.07,07</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -14951,7 +14986,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>01.03.2014</t>
+          <t>19.03.2006</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -14973,20 +15008,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sofie Havig</t>
+          <t>Vilma Granhus Følstad</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2.07,07</t>
+          <t>2.09,07</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>19.03.2006</t>
+          <t>21.06.2025</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -15008,20 +15043,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Vilma Granhus Følstad</t>
+          <t>Ola Husan</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2.09,07</t>
+          <t>1.55,97</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>21.06.2025</t>
+          <t>06.03.2022</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -15043,20 +15078,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Ola Husan</t>
+          <t>Snorre Risholt Moen</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1.55,97</t>
+          <t>2.14,34</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>06.03.2022</t>
+          <t>02.03.2013</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -15078,20 +15113,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Snorre Risholt Moen</t>
+          <t>KARIANNE HUSBY</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2.14,34</t>
+          <t>2.37,37</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>02.03.2013</t>
+          <t>13.03.2010</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -15105,41 +15140,6 @@
         </is>
       </c>
       <c r="G199" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>KARIANNE HUSBY</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2.37,37</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>46</v>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>13.03.2010</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Trondheim</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
